--- a/Jogos_do_Dia/2023-11-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.33</v>
@@ -718,10 +718,10 @@
         <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.1</v>
@@ -830,13 +830,13 @@
         <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1207,6 +1207,145 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-11-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="L2" t="n">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
       <c r="M2" t="n">
         <v>1.33</v>
@@ -721,7 +721,7 @@
         <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -830,37 +830,37 @@
         <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1238,61 +1238,61 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.93</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>1.81</v>
@@ -1310,43 +1310,43 @@
         <v>3.41</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
